--- a/placeholder_name/manually_provided_coordinates.xlsx
+++ b/placeholder_name/manually_provided_coordinates.xlsx
@@ -461,10 +461,10 @@
         <v>456</v>
       </c>
       <c r="C2" t="n">
+        <v>789</v>
+      </c>
+      <c r="D2" t="n">
         <v>159</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7533</v>
       </c>
     </row>
   </sheetData>
